--- a/Win32/Binaries/Table/skeysvalue.xlsx
+++ b/Win32/Binaries/Table/skeysvalue.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,13 +10,84 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="注释" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+由高到低：全鱼火锅，糖稀鱼丸，鱼尾烧麦</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+由高到低：全鱼火锅，糖稀鱼丸，鱼尾烧麦</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="305">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -562,10 +633,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>连续挑战复活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>精英复活</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1015,10 +1082,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cost1元宝刷新第1次积累幸运指数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gainwealth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1052,14 +1115,46 @@
   </si>
   <si>
     <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rmbrefresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viplvneed购买基金所需vip等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost购买花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gainwealth拜财神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freetimes免费次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>growthfound成长基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost1元宝刷新第1次花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限挑战复活</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1073,6 +1168,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1101,7 +1211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1110,6 +1220,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1170,7 +1281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1202,9 +1313,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1236,6 +1348,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1411,14 +1524,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CW26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
@@ -1523,7 +1636,7 @@
     <col min="101" max="101" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1828,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:101">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -2133,7 +2246,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:101">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -2204,7 +2317,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="4" spans="1:101">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>112</v>
       </c>
@@ -2333,7 +2446,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="5" spans="1:101">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -2368,7 +2481,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:101">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>133</v>
       </c>
@@ -2403,7 +2516,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:101">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>144</v>
       </c>
@@ -2438,7 +2551,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:101">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>149</v>
       </c>
@@ -2503,27 +2616,27 @@
         <v>20</v>
       </c>
       <c r="V8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W8">
         <v>100</v>
       </c>
       <c r="X8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y8">
         <v>180</v>
       </c>
       <c r="Z8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA8">
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:101">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
         <v>143</v>
@@ -2556,9 +2669,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:101">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
         <v>143</v>
@@ -2591,9 +2704,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:101">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
         <v>143</v>
@@ -2626,7 +2739,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:101">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>138</v>
       </c>
@@ -2649,7 +2762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:101">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>139</v>
       </c>
@@ -2672,7 +2785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:101">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>145</v>
       </c>
@@ -2695,7 +2808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:101">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>156</v>
       </c>
@@ -2718,9 +2831,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:101">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s">
         <v>140</v>
@@ -2741,9 +2854,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:73">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s">
         <v>140</v>
@@ -2764,9 +2877,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:73">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s">
         <v>140</v>
@@ -2787,94 +2900,94 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:73">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" t="s">
         <v>196</v>
-      </c>
-      <c r="B19" t="s">
-        <v>197</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E19">
         <v>100055</v>
       </c>
       <c r="F19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19">
         <v>100055</v>
       </c>
       <c r="H19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K19">
         <v>50</v>
       </c>
       <c r="L19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M19">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:73">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" t="s">
         <v>201</v>
-      </c>
-      <c r="B20" t="s">
-        <v>202</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E20">
         <v>100066</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G20">
         <v>100066</v>
       </c>
       <c r="H20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K20">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:73">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" t="s">
         <v>212</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21">
+        <v>9999</v>
+      </c>
+      <c r="D21" t="s">
         <v>213</v>
-      </c>
-      <c r="C21">
-        <v>999</v>
-      </c>
-      <c r="D21" t="s">
-        <v>214</v>
       </c>
       <c r="E21">
         <v>60</v>
@@ -2940,512 +3053,518 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:73">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" t="s">
         <v>222</v>
-      </c>
-      <c r="B22" t="s">
-        <v>223</v>
       </c>
       <c r="C22">
         <f>2^1*5</f>
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E22">
         <f>2^2*5</f>
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G22">
         <f>2^3*5</f>
         <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I22">
         <f>2^4*5</f>
         <v>80</v>
       </c>
       <c r="J22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K22">
         <f>2^5*5</f>
         <v>160</v>
       </c>
       <c r="L22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M22">
         <f>2^6*5</f>
         <v>320</v>
       </c>
       <c r="N22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O22">
         <f>2^6*5</f>
         <v>320</v>
       </c>
       <c r="P22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q22">
         <f>2^6*5</f>
         <v>320</v>
       </c>
       <c r="R22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S22">
         <f>2^6*5</f>
         <v>320</v>
       </c>
       <c r="T22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U22">
         <f>2^6*5</f>
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="1:73">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E23">
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I23">
         <v>40</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K23">
         <v>80</v>
       </c>
       <c r="L23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M23">
         <v>160</v>
       </c>
       <c r="N23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O23">
         <v>320</v>
       </c>
       <c r="P23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q23">
         <v>320</v>
       </c>
       <c r="R23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S23">
         <v>320</v>
       </c>
       <c r="T23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U23">
         <v>320</v>
       </c>
       <c r="V23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="W23">
         <v>640</v>
       </c>
       <c r="X23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Y23">
         <v>640</v>
       </c>
       <c r="Z23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AA23">
         <v>640</v>
       </c>
       <c r="AB23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC23">
         <v>640</v>
       </c>
       <c r="AD23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AE23">
         <v>640</v>
       </c>
       <c r="AF23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG23">
         <v>1280</v>
       </c>
       <c r="AH23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AI23">
         <v>1280</v>
       </c>
       <c r="AJ23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AK23">
         <v>1280</v>
       </c>
       <c r="AL23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM23">
         <v>1280</v>
       </c>
       <c r="AN23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AO23">
         <v>1280</v>
       </c>
       <c r="AP23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AQ23">
         <v>1280</v>
       </c>
       <c r="AR23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AS23">
         <v>50</v>
       </c>
       <c r="AT23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU23">
         <v>60</v>
       </c>
       <c r="AV23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AW23">
         <v>70</v>
       </c>
       <c r="AX23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AY23">
         <v>80</v>
       </c>
       <c r="AZ23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="BA23">
         <v>90</v>
       </c>
       <c r="BB23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC23">
         <v>100</v>
       </c>
       <c r="BD23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="BE23">
         <v>110</v>
       </c>
       <c r="BF23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BG23">
         <v>120</v>
       </c>
       <c r="BH23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BI23">
         <v>130</v>
       </c>
       <c r="BJ23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BK23">
         <v>140</v>
       </c>
       <c r="BL23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BM23">
         <v>150</v>
       </c>
       <c r="BN23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BO23">
         <v>160</v>
       </c>
       <c r="BP23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BQ23">
         <v>170</v>
       </c>
       <c r="BR23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BS23">
         <v>180</v>
       </c>
       <c r="BT23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BU23">
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:73">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C24">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E24">
         <v>3600</v>
       </c>
       <c r="F24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I24">
         <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K24">
         <v>5</v>
       </c>
       <c r="L24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M24">
         <v>8</v>
       </c>
       <c r="N24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O24">
         <v>9</v>
       </c>
       <c r="P24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q24">
         <v>10</v>
       </c>
       <c r="R24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S24">
         <v>11</v>
       </c>
       <c r="T24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U24">
         <v>12</v>
       </c>
       <c r="V24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W24">
         <v>20</v>
       </c>
       <c r="X24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y24">
         <v>40</v>
       </c>
       <c r="Z24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AA24">
         <v>60</v>
       </c>
       <c r="AB24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC24">
         <v>80</v>
       </c>
       <c r="AD24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AE24">
         <v>100</v>
       </c>
       <c r="AF24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG24">
         <v>50</v>
       </c>
       <c r="AH24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AI24">
         <v>60</v>
       </c>
       <c r="AJ24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AK24">
         <v>70</v>
       </c>
       <c r="AL24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AM24">
         <v>80</v>
       </c>
       <c r="AN24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AO24">
         <v>90</v>
       </c>
       <c r="AP24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AQ24">
         <v>100</v>
       </c>
       <c r="AR24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AS24">
         <v>110</v>
       </c>
       <c r="AT24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AU24">
         <v>120</v>
       </c>
       <c r="AV24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AW24">
         <v>130</v>
       </c>
       <c r="AX24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AY24">
         <v>140</v>
       </c>
       <c r="AZ24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BA24">
         <v>150</v>
       </c>
       <c r="BB24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BC24">
         <v>160</v>
       </c>
       <c r="BD24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BE24">
         <v>170</v>
       </c>
       <c r="BF24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BG24">
         <v>180</v>
       </c>
       <c r="BH24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BI24">
         <v>190</v>
       </c>
+      <c r="BJ24" t="s">
+        <v>297</v>
+      </c>
+      <c r="BK24">
+        <v>50</v>
+      </c>
     </row>
-    <row r="25" spans="1:73">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B25" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:73">
+    <row r="26" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C26" s="4">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B26" t="s">
-        <v>297</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>298</v>
-      </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <v>1122</v>
       </c>
     </row>
@@ -3453,18 +3572,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CW31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
@@ -3527,7 +3647,7 @@
     <col min="59" max="59" width="9.5" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="7.5" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.5" customWidth="1"/>
     <col min="63" max="63" width="9.5" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="7.5" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="9.5" bestFit="1" customWidth="1"/>
@@ -3569,7 +3689,7 @@
     <col min="101" max="101" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3874,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:101">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -4179,12 +4299,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:101">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" t="s">
         <v>175</v>
-      </c>
-      <c r="B3" t="s">
-        <v>176</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -4250,24 +4370,24 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="4" spans="1:101">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" t="s">
         <v>171</v>
-      </c>
-      <c r="B4" t="s">
-        <v>172</v>
       </c>
       <c r="C4">
         <v>10000</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E4">
         <v>9999</v>
       </c>
       <c r="F4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4379,7 +4499,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="5" spans="1:101">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>157</v>
       </c>
@@ -4414,9 +4534,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:101">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
         <v>143</v>
@@ -4449,9 +4569,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:101">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>162</v>
+        <v>304</v>
       </c>
       <c r="B7" t="s">
         <v>143</v>
@@ -4484,7 +4604,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:101">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>161</v>
       </c>
@@ -4549,27 +4669,27 @@
         <v>20</v>
       </c>
       <c r="V8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="W8">
         <v>100</v>
       </c>
       <c r="X8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y8">
         <v>180</v>
       </c>
       <c r="Z8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA8">
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:101">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
         <v>143</v>
@@ -4602,9 +4722,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:101">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
         <v>143</v>
@@ -4637,9 +4757,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:101">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
         <v>143</v>
@@ -4672,7 +4792,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:101">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>158</v>
       </c>
@@ -4695,9 +4815,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:101">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
         <v>140</v>
@@ -4718,7 +4838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:101">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>159</v>
       </c>
@@ -4741,7 +4861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:101">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>160</v>
       </c>
@@ -4764,9 +4884,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:101">
+    <row r="16" spans="1:101" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
         <v>140</v>
@@ -4787,9 +4907,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:73">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
         <v>140</v>
@@ -4810,9 +4930,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:73">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18" t="s">
         <v>140</v>
@@ -4833,124 +4953,124 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:73" s="3" customFormat="1">
+    <row r="19" spans="1:73" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E19" s="3">
         <v>100055</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G19" s="3">
         <v>100055</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I19" s="3">
         <v>2</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K19" s="3">
         <v>500</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M19" s="3">
         <v>1</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O19" s="3">
         <v>12000</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q19" s="3">
         <v>2</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S19" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="20" spans="1:73">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" t="s">
         <v>207</v>
-      </c>
-      <c r="B20" t="s">
-        <v>208</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E20">
         <v>100066</v>
       </c>
       <c r="F20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G20">
         <v>100066</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K20">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:73">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" t="s">
         <v>215</v>
-      </c>
-      <c r="B21" t="s">
-        <v>216</v>
       </c>
       <c r="C21">
         <v>999</v>
       </c>
       <c r="D21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E21">
         <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G21">
         <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I21">
         <v>50</v>
@@ -5004,398 +5124,398 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:73">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C22">
         <f>2^1*5</f>
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E22">
         <f>2^2*5</f>
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G22">
         <f>2^3*5</f>
         <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I22">
         <f>2^4*5</f>
         <v>80</v>
       </c>
       <c r="J22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K22">
         <f>2^5*5</f>
         <v>160</v>
       </c>
       <c r="L22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M22">
         <f>2^6*5</f>
         <v>320</v>
       </c>
       <c r="N22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O22">
         <f>2^6*5</f>
         <v>320</v>
       </c>
       <c r="P22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q22">
         <f>2^6*5</f>
         <v>320</v>
       </c>
       <c r="R22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S22">
         <f>2^6*5</f>
         <v>320</v>
       </c>
       <c r="T22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U22">
         <f>2^6*5</f>
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="1:73">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E23">
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I23">
         <v>40</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K23">
         <v>80</v>
       </c>
       <c r="L23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M23">
         <v>160</v>
       </c>
       <c r="N23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O23">
         <v>320</v>
       </c>
       <c r="P23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q23">
         <v>320</v>
       </c>
       <c r="R23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S23">
         <v>320</v>
       </c>
       <c r="T23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U23">
         <v>320</v>
       </c>
       <c r="V23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="W23">
         <v>640</v>
       </c>
       <c r="X23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Y23">
         <v>640</v>
       </c>
       <c r="Z23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AA23">
         <v>640</v>
       </c>
       <c r="AB23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC23">
         <v>640</v>
       </c>
       <c r="AD23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AE23">
         <v>640</v>
       </c>
       <c r="AF23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG23">
         <v>1280</v>
       </c>
       <c r="AH23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AI23">
         <v>1280</v>
       </c>
       <c r="AJ23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AK23">
         <v>1280</v>
       </c>
       <c r="AL23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM23">
         <v>1280</v>
       </c>
       <c r="AN23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AO23">
         <v>1280</v>
       </c>
       <c r="AP23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AQ23">
         <v>1280</v>
       </c>
       <c r="AR23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AS23">
         <v>50</v>
       </c>
       <c r="AT23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU23">
         <v>60</v>
       </c>
       <c r="AV23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AW23">
         <v>70</v>
       </c>
       <c r="AX23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AY23">
         <v>80</v>
       </c>
       <c r="AZ23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="BA23">
         <v>90</v>
       </c>
       <c r="BB23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BC23">
         <v>100</v>
       </c>
       <c r="BD23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="BE23">
         <v>110</v>
       </c>
       <c r="BF23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BG23">
         <v>120</v>
       </c>
       <c r="BH23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BI23">
         <v>130</v>
       </c>
       <c r="BJ23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BK23">
         <v>140</v>
       </c>
       <c r="BL23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BM23">
         <v>150</v>
       </c>
       <c r="BN23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BO23">
         <v>160</v>
       </c>
       <c r="BP23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BQ23">
         <v>170</v>
       </c>
       <c r="BR23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BS23">
         <v>180</v>
       </c>
       <c r="BT23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BU23">
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:73">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C24">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E24">
         <v>3600</v>
       </c>
       <c r="F24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I24">
         <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K24">
         <v>5</v>
       </c>
       <c r="L24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M24">
         <v>8</v>
       </c>
       <c r="N24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O24">
         <v>9</v>
       </c>
       <c r="P24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q24">
         <v>10</v>
       </c>
       <c r="R24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S24">
         <v>11</v>
       </c>
       <c r="T24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U24">
         <v>12</v>
       </c>
       <c r="V24" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="W24">
         <v>20</v>
       </c>
       <c r="X24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Y24">
         <v>40</v>
       </c>
       <c r="Z24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AA24">
         <v>60</v>
       </c>
       <c r="AB24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC24">
         <v>80</v>
       </c>
       <c r="AD24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AE24">
         <v>100</v>
       </c>
       <c r="AF24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG24">
         <f>RIGHT(AF24,1)*50</f>
@@ -5513,21 +5633,51 @@
         <f t="shared" ref="BI24" si="24">BG24+10</f>
         <v>190</v>
       </c>
+      <c r="BJ24" t="s">
+        <v>297</v>
+      </c>
+      <c r="BK24">
+        <v>50</v>
+      </c>
     </row>
-    <row r="25" spans="1:73">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B25" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C25">
         <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C26" s="4">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="D31">
+        <f>2^7*10</f>
+        <v>1280</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>